--- a/EHS2019/EHS/ExcelGenerator/Template/eHSVF002-VaccinationFileTemplate-RVP.xlsx
+++ b/EHS2019/EHS/ExcelGenerator/Template/eHSVF002-VaccinationFileTemplate-RVP.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\EHS2019\EHS\ExcelGenerator\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swl109\Documents\GitHub\EHS\EHS2019\EHS\ExcelGenerator\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -224,17 +224,17 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="dd\ mmm\ yyyy"/>
-    <numFmt numFmtId="165" formatCode="dd\ mmm\ yyyy\ hh:mm"/>
-    <numFmt numFmtId="166" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="176" formatCode="dd\ mmm\ yyyy"/>
+    <numFmt numFmtId="177" formatCode="dd\ mmm\ yyyy\ hh:mm"/>
+    <numFmt numFmtId="178" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -242,21 +242,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -285,14 +285,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -300,7 +300,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -308,27 +308,44 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <name val="HA_MingLiu"/>
-      <family val="3"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -506,7 +523,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
@@ -541,7 +558,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -559,7 +576,7 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -590,9 +607,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -602,7 +616,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -620,6 +634,13 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="34">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -961,7 +982,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="41.5703125" style="8" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" style="13" customWidth="1"/>
@@ -969,159 +990,160 @@
     <col min="4" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="21" customFormat="1" ht="15.75">
+    <row r="1" spans="1:3" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="4"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="5"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="5"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="5"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="5"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="5"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="5"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="12"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C16" s="13"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B23" s="15"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B24" s="15"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>51</v>
       </c>
       <c r="B25" s="15"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B26" s="15"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
         <v>52</v>
       </c>
       <c r="B27" s="17"/>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="18" t="s">
         <v>53</v>
       </c>
       <c r="B28" s="17"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="18"/>
       <c r="B29" s="17"/>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="18"/>
       <c r="B30" s="17"/>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="16"/>
       <c r="B31" s="19"/>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B32" s="20"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
@@ -1140,49 +1162,49 @@
       <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" style="36" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" style="36" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" style="36" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="36" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="36" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="36" customWidth="1"/>
+    <col min="1" max="1" width="8" style="35" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" style="35" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="44" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="35" customWidth="1"/>
     <col min="7" max="7" width="7" style="11" customWidth="1"/>
-    <col min="8" max="9" width="11.85546875" style="39" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" style="36" customWidth="1"/>
-    <col min="11" max="11" width="4.7109375" style="36" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" style="36" customWidth="1"/>
-    <col min="13" max="13" width="25" style="36" customWidth="1"/>
-    <col min="14" max="14" width="4.5703125" style="36" customWidth="1"/>
-    <col min="15" max="15" width="36" style="36" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="36"/>
+    <col min="8" max="9" width="11.85546875" style="38" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" style="35" customWidth="1"/>
+    <col min="11" max="11" width="4.7109375" style="35" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" style="35" customWidth="1"/>
+    <col min="13" max="13" width="25" style="35" customWidth="1"/>
+    <col min="14" max="14" width="4.5703125" style="35" customWidth="1"/>
+    <col min="15" max="15" width="36" style="35" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="24" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:15" s="24" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
       <c r="K1" s="22"/>
-      <c r="L1" s="41" t="s">
+      <c r="L1" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="42"/>
+      <c r="M1" s="41"/>
       <c r="N1" s="22"/>
       <c r="O1" s="23" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="29" customFormat="1" ht="45">
+    <row r="2" spans="1:15" s="29" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>64</v>
       </c>
@@ -1192,7 +1214,7 @@
       <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="42" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="9" t="s">
@@ -1225,1106 +1247,1107 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="30" customFormat="1" ht="15.75">
-      <c r="D3" s="31"/>
+    <row r="3" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="43"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="K3" s="32"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="32"/>
-    </row>
-    <row r="4" spans="1:15" s="30" customFormat="1" ht="15.75">
-      <c r="D4" s="31"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="K3" s="31"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="31"/>
+    </row>
+    <row r="4" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="43"/>
       <c r="G4" s="10"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="K4" s="32"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="32"/>
-    </row>
-    <row r="5" spans="1:15" s="30" customFormat="1" ht="15.75">
-      <c r="D5" s="31"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="K4" s="31"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="31"/>
+    </row>
+    <row r="5" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="43"/>
       <c r="G5" s="10"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="K5" s="32"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="32"/>
-    </row>
-    <row r="6" spans="1:15" s="30" customFormat="1" ht="15.75">
-      <c r="D6" s="31"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="K5" s="31"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="31"/>
+    </row>
+    <row r="6" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="43"/>
       <c r="G6" s="10"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="K6" s="32"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="32"/>
-    </row>
-    <row r="7" spans="1:15" s="30" customFormat="1" ht="15.75">
-      <c r="D7" s="31"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="K6" s="31"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="43"/>
       <c r="G7" s="10"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="K7" s="32"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="32"/>
-    </row>
-    <row r="8" spans="1:15" s="30" customFormat="1" ht="15.75">
-      <c r="D8" s="31"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="K7" s="31"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="31"/>
+    </row>
+    <row r="8" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="43"/>
       <c r="G8" s="10"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="32"/>
-    </row>
-    <row r="9" spans="1:15" s="30" customFormat="1" ht="15.75">
-      <c r="D9" s="31"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="31"/>
+    </row>
+    <row r="9" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="43"/>
       <c r="G9" s="10"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="32"/>
-    </row>
-    <row r="10" spans="1:15" s="30" customFormat="1" ht="15.75">
-      <c r="D10" s="31"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="31"/>
+    </row>
+    <row r="10" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="43"/>
       <c r="G10" s="10"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="32"/>
-    </row>
-    <row r="11" spans="1:15" s="30" customFormat="1" ht="15.75">
-      <c r="D11" s="31"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="31"/>
+    </row>
+    <row r="11" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="43"/>
       <c r="G11" s="10"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="K11" s="32"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="32"/>
-    </row>
-    <row r="12" spans="1:15" s="30" customFormat="1" ht="15.75">
-      <c r="D12" s="31"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="K11" s="31"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="31"/>
+    </row>
+    <row r="12" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="43"/>
       <c r="G12" s="10"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="32"/>
-    </row>
-    <row r="13" spans="1:15" s="30" customFormat="1" ht="15.75">
-      <c r="D13" s="31"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="31"/>
+    </row>
+    <row r="13" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="43"/>
       <c r="G13" s="10"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="K13" s="32"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="32"/>
-    </row>
-    <row r="14" spans="1:15" s="30" customFormat="1" ht="15.75">
-      <c r="D14" s="31"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="K13" s="31"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="31"/>
+    </row>
+    <row r="14" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="43"/>
       <c r="G14" s="10"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="K14" s="32"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="32"/>
-    </row>
-    <row r="15" spans="1:15" s="30" customFormat="1" ht="15.75">
-      <c r="D15" s="31"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="K14" s="31"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="31"/>
+    </row>
+    <row r="15" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="43"/>
       <c r="G15" s="10"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="K15" s="32"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="32"/>
-    </row>
-    <row r="16" spans="1:15" s="30" customFormat="1" ht="15.75">
-      <c r="D16" s="31"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="K15" s="31"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="31"/>
+    </row>
+    <row r="16" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="43"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="K16" s="32"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="32"/>
-    </row>
-    <row r="17" spans="4:14" s="30" customFormat="1" ht="15.75">
-      <c r="D17" s="31"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="K16" s="31"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="31"/>
+    </row>
+    <row r="17" spans="4:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="43"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="K17" s="32"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="32"/>
-    </row>
-    <row r="18" spans="4:14" s="30" customFormat="1" ht="15.75">
-      <c r="D18" s="31"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="K17" s="31"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="31"/>
+    </row>
+    <row r="18" spans="4:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="43"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="32"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="32"/>
-    </row>
-    <row r="19" spans="4:14" s="30" customFormat="1" ht="15.75">
-      <c r="D19" s="31"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="31"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="31"/>
+    </row>
+    <row r="19" spans="4:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="43"/>
       <c r="G19" s="10"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="32"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="32"/>
-    </row>
-    <row r="20" spans="4:14" s="30" customFormat="1" ht="15.75">
-      <c r="D20" s="31"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="31"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="31"/>
+    </row>
+    <row r="20" spans="4:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="43"/>
       <c r="G20" s="10"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="32"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="32"/>
-    </row>
-    <row r="21" spans="4:14" s="30" customFormat="1" ht="15.75">
-      <c r="D21" s="31"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="31"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="31"/>
+    </row>
+    <row r="21" spans="4:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="43"/>
       <c r="G21" s="10"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="32"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="32"/>
-    </row>
-    <row r="22" spans="4:14" s="30" customFormat="1" ht="15.75">
-      <c r="D22" s="31"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="31"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="31"/>
+    </row>
+    <row r="22" spans="4:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="43"/>
       <c r="G22" s="10"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="32"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="32"/>
-    </row>
-    <row r="23" spans="4:14" s="30" customFormat="1" ht="15.75">
-      <c r="D23" s="31"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="31"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="31"/>
+    </row>
+    <row r="23" spans="4:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="43"/>
       <c r="G23" s="10"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="32"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="32"/>
-    </row>
-    <row r="24" spans="4:14" s="30" customFormat="1" ht="15.75">
-      <c r="D24" s="31"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="31"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="31"/>
+    </row>
+    <row r="24" spans="4:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="43"/>
       <c r="G24" s="10"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="32"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="32"/>
-    </row>
-    <row r="25" spans="4:14" s="30" customFormat="1" ht="15.75">
-      <c r="D25" s="31"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="31"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="31"/>
+    </row>
+    <row r="25" spans="4:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="43"/>
       <c r="G25" s="10"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="32"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="32"/>
-    </row>
-    <row r="26" spans="4:14" s="30" customFormat="1" ht="15.75">
-      <c r="D26" s="31"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="31"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="31"/>
+    </row>
+    <row r="26" spans="4:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="43"/>
       <c r="G26" s="10"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="32"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="32"/>
-    </row>
-    <row r="27" spans="4:14" s="30" customFormat="1" ht="15.75">
-      <c r="D27" s="31"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="31"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="31"/>
+    </row>
+    <row r="27" spans="4:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="43"/>
       <c r="G27" s="10"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="32"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="32"/>
-    </row>
-    <row r="28" spans="4:14" s="30" customFormat="1" ht="15.75">
-      <c r="D28" s="31"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="31"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="31"/>
+    </row>
+    <row r="28" spans="4:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="43"/>
       <c r="G28" s="10"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="32"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="32"/>
-    </row>
-    <row r="29" spans="4:14" s="30" customFormat="1" ht="15.75">
-      <c r="D29" s="31"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="31"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="31"/>
+    </row>
+    <row r="29" spans="4:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="43"/>
       <c r="G29" s="10"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="32"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="32"/>
-    </row>
-    <row r="30" spans="4:14" s="30" customFormat="1" ht="15.75">
-      <c r="D30" s="31"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="31"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="31"/>
+    </row>
+    <row r="30" spans="4:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="43"/>
       <c r="G30" s="10"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="32"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="32"/>
-    </row>
-    <row r="31" spans="4:14" s="30" customFormat="1" ht="15.75">
-      <c r="D31" s="31"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="31"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="31"/>
+    </row>
+    <row r="31" spans="4:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="43"/>
       <c r="G31" s="10"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="32"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="32"/>
-    </row>
-    <row r="32" spans="4:14" s="30" customFormat="1" ht="15.75">
-      <c r="D32" s="31"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="31"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="31"/>
+    </row>
+    <row r="32" spans="4:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="43"/>
       <c r="G32" s="10"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="32"/>
-      <c r="M32" s="33"/>
-      <c r="N32" s="32"/>
-    </row>
-    <row r="33" spans="4:14" s="30" customFormat="1" ht="15.75">
-      <c r="D33" s="31"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="31"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="31"/>
+    </row>
+    <row r="33" spans="4:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D33" s="43"/>
       <c r="G33" s="10"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="32"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="32"/>
-    </row>
-    <row r="34" spans="4:14" s="30" customFormat="1" ht="15.75">
-      <c r="D34" s="31"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="31"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="31"/>
+    </row>
+    <row r="34" spans="4:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D34" s="43"/>
       <c r="G34" s="10"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="32"/>
-      <c r="M34" s="33"/>
-      <c r="N34" s="32"/>
-    </row>
-    <row r="35" spans="4:14" s="30" customFormat="1" ht="15.75">
-      <c r="D35" s="31"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="31"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="31"/>
+    </row>
+    <row r="35" spans="4:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D35" s="43"/>
       <c r="G35" s="10"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="32"/>
-      <c r="M35" s="33"/>
-      <c r="N35" s="32"/>
-    </row>
-    <row r="36" spans="4:14" s="30" customFormat="1" ht="15.75">
-      <c r="D36" s="31"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="31"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="31"/>
+    </row>
+    <row r="36" spans="4:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D36" s="43"/>
       <c r="G36" s="10"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="32"/>
-      <c r="M36" s="33"/>
-      <c r="N36" s="32"/>
-    </row>
-    <row r="37" spans="4:14" s="30" customFormat="1" ht="15.75">
-      <c r="D37" s="31"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="31"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="31"/>
+    </row>
+    <row r="37" spans="4:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D37" s="43"/>
       <c r="G37" s="10"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="32"/>
-      <c r="M37" s="33"/>
-      <c r="N37" s="32"/>
-    </row>
-    <row r="38" spans="4:14" s="30" customFormat="1" ht="15.75">
-      <c r="D38" s="31"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="31"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="31"/>
+    </row>
+    <row r="38" spans="4:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D38" s="43"/>
       <c r="G38" s="10"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="32"/>
-      <c r="M38" s="33"/>
-      <c r="N38" s="32"/>
-    </row>
-    <row r="39" spans="4:14" s="30" customFormat="1" ht="15.75">
-      <c r="D39" s="31"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="31"/>
+      <c r="M38" s="32"/>
+      <c r="N38" s="31"/>
+    </row>
+    <row r="39" spans="4:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D39" s="43"/>
       <c r="G39" s="10"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="35"/>
-      <c r="K39" s="32"/>
-      <c r="M39" s="33"/>
-      <c r="N39" s="32"/>
-    </row>
-    <row r="40" spans="4:14" s="30" customFormat="1" ht="15.75">
-      <c r="D40" s="31"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="31"/>
+      <c r="M39" s="32"/>
+      <c r="N39" s="31"/>
+    </row>
+    <row r="40" spans="4:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D40" s="43"/>
       <c r="G40" s="10"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="32"/>
-      <c r="M40" s="33"/>
-      <c r="N40" s="32"/>
-    </row>
-    <row r="41" spans="4:14" s="30" customFormat="1" ht="15.75">
-      <c r="D41" s="31"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="31"/>
+      <c r="M40" s="32"/>
+      <c r="N40" s="31"/>
+    </row>
+    <row r="41" spans="4:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D41" s="43"/>
       <c r="G41" s="10"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="35"/>
-      <c r="K41" s="32"/>
-      <c r="M41" s="33"/>
-      <c r="N41" s="32"/>
-    </row>
-    <row r="42" spans="4:14" s="30" customFormat="1" ht="15.75">
-      <c r="D42" s="31"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="31"/>
+      <c r="M41" s="32"/>
+      <c r="N41" s="31"/>
+    </row>
+    <row r="42" spans="4:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D42" s="43"/>
       <c r="G42" s="10"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="38"/>
-      <c r="J42" s="35"/>
-      <c r="K42" s="32"/>
-      <c r="M42" s="33"/>
-      <c r="N42" s="32"/>
-    </row>
-    <row r="43" spans="4:14" s="30" customFormat="1" ht="15.75">
-      <c r="D43" s="31"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="34"/>
+      <c r="K42" s="31"/>
+      <c r="M42" s="32"/>
+      <c r="N42" s="31"/>
+    </row>
+    <row r="43" spans="4:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D43" s="43"/>
       <c r="G43" s="10"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="35"/>
-      <c r="K43" s="32"/>
-      <c r="M43" s="33"/>
-      <c r="N43" s="32"/>
-    </row>
-    <row r="44" spans="4:14" s="30" customFormat="1" ht="15.75">
-      <c r="D44" s="31"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="34"/>
+      <c r="K43" s="31"/>
+      <c r="M43" s="32"/>
+      <c r="N43" s="31"/>
+    </row>
+    <row r="44" spans="4:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D44" s="43"/>
       <c r="G44" s="10"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="35"/>
-      <c r="K44" s="32"/>
-      <c r="M44" s="33"/>
-      <c r="N44" s="32"/>
-    </row>
-    <row r="45" spans="4:14" s="30" customFormat="1" ht="15.75">
-      <c r="D45" s="31"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="34"/>
+      <c r="K44" s="31"/>
+      <c r="M44" s="32"/>
+      <c r="N44" s="31"/>
+    </row>
+    <row r="45" spans="4:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D45" s="43"/>
       <c r="G45" s="10"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="35"/>
-      <c r="K45" s="32"/>
-      <c r="M45" s="33"/>
-      <c r="N45" s="32"/>
-    </row>
-    <row r="46" spans="4:14" s="30" customFormat="1" ht="15.75">
-      <c r="D46" s="31"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="34"/>
+      <c r="K45" s="31"/>
+      <c r="M45" s="32"/>
+      <c r="N45" s="31"/>
+    </row>
+    <row r="46" spans="4:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D46" s="43"/>
       <c r="G46" s="10"/>
-      <c r="H46" s="38"/>
-      <c r="I46" s="38"/>
-      <c r="J46" s="35"/>
-      <c r="K46" s="32"/>
-      <c r="M46" s="33"/>
-      <c r="N46" s="32"/>
-    </row>
-    <row r="47" spans="4:14" s="30" customFormat="1" ht="15.75">
-      <c r="D47" s="31"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="34"/>
+      <c r="K46" s="31"/>
+      <c r="M46" s="32"/>
+      <c r="N46" s="31"/>
+    </row>
+    <row r="47" spans="4:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D47" s="43"/>
       <c r="G47" s="10"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="38"/>
-      <c r="J47" s="35"/>
-      <c r="K47" s="32"/>
-      <c r="M47" s="33"/>
-      <c r="N47" s="32"/>
-    </row>
-    <row r="48" spans="4:14" s="30" customFormat="1" ht="15.75">
-      <c r="D48" s="31"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="34"/>
+      <c r="K47" s="31"/>
+      <c r="M47" s="32"/>
+      <c r="N47" s="31"/>
+    </row>
+    <row r="48" spans="4:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D48" s="43"/>
       <c r="G48" s="10"/>
-      <c r="H48" s="38"/>
-      <c r="I48" s="38"/>
-      <c r="J48" s="35"/>
-      <c r="K48" s="32"/>
-      <c r="M48" s="33"/>
-      <c r="N48" s="32"/>
-    </row>
-    <row r="49" spans="4:14" s="30" customFormat="1" ht="15.75">
-      <c r="D49" s="31"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="34"/>
+      <c r="K48" s="31"/>
+      <c r="M48" s="32"/>
+      <c r="N48" s="31"/>
+    </row>
+    <row r="49" spans="4:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D49" s="43"/>
       <c r="G49" s="10"/>
-      <c r="H49" s="38"/>
-      <c r="I49" s="38"/>
-      <c r="J49" s="35"/>
-      <c r="K49" s="32"/>
-      <c r="M49" s="33"/>
-      <c r="N49" s="32"/>
-    </row>
-    <row r="50" spans="4:14" s="30" customFormat="1" ht="15.75">
-      <c r="D50" s="31"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="34"/>
+      <c r="K49" s="31"/>
+      <c r="M49" s="32"/>
+      <c r="N49" s="31"/>
+    </row>
+    <row r="50" spans="4:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D50" s="43"/>
       <c r="G50" s="10"/>
-      <c r="H50" s="38"/>
-      <c r="I50" s="38"/>
-      <c r="J50" s="35"/>
-      <c r="K50" s="32"/>
-      <c r="M50" s="33"/>
-      <c r="N50" s="32"/>
-    </row>
-    <row r="51" spans="4:14" s="30" customFormat="1" ht="15.75">
-      <c r="D51" s="31"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="34"/>
+      <c r="K50" s="31"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="31"/>
+    </row>
+    <row r="51" spans="4:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D51" s="43"/>
       <c r="G51" s="10"/>
-      <c r="H51" s="38"/>
-      <c r="I51" s="38"/>
-      <c r="J51" s="35"/>
-      <c r="K51" s="32"/>
-      <c r="M51" s="33"/>
-      <c r="N51" s="32"/>
-    </row>
-    <row r="52" spans="4:14" s="30" customFormat="1" ht="15.75">
-      <c r="D52" s="31"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="34"/>
+      <c r="K51" s="31"/>
+      <c r="M51" s="32"/>
+      <c r="N51" s="31"/>
+    </row>
+    <row r="52" spans="4:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D52" s="43"/>
       <c r="G52" s="10"/>
-      <c r="H52" s="38"/>
-      <c r="I52" s="38"/>
-      <c r="J52" s="35"/>
-      <c r="K52" s="32"/>
-      <c r="M52" s="33"/>
-      <c r="N52" s="32"/>
-    </row>
-    <row r="53" spans="4:14">
-      <c r="H53" s="38"/>
-      <c r="I53" s="38"/>
-      <c r="K53" s="37"/>
-      <c r="N53" s="37"/>
-    </row>
-    <row r="54" spans="4:14">
-      <c r="H54" s="38"/>
-      <c r="I54" s="38"/>
-      <c r="K54" s="37"/>
-      <c r="N54" s="37"/>
-    </row>
-    <row r="55" spans="4:14">
-      <c r="H55" s="38"/>
-      <c r="I55" s="38"/>
-      <c r="K55" s="37"/>
-      <c r="N55" s="37"/>
-    </row>
-    <row r="56" spans="4:14">
-      <c r="H56" s="38"/>
-      <c r="I56" s="38"/>
-      <c r="K56" s="37"/>
-      <c r="N56" s="37"/>
-    </row>
-    <row r="57" spans="4:14">
-      <c r="H57" s="38"/>
-      <c r="I57" s="38"/>
-      <c r="K57" s="37"/>
-      <c r="N57" s="37"/>
-    </row>
-    <row r="58" spans="4:14">
-      <c r="H58" s="38"/>
-      <c r="I58" s="38"/>
-      <c r="K58" s="37"/>
-      <c r="N58" s="37"/>
-    </row>
-    <row r="59" spans="4:14">
-      <c r="H59" s="38"/>
-      <c r="I59" s="38"/>
-      <c r="K59" s="37"/>
-      <c r="N59" s="37"/>
-    </row>
-    <row r="60" spans="4:14">
-      <c r="H60" s="38"/>
-      <c r="I60" s="38"/>
-      <c r="K60" s="37"/>
-      <c r="N60" s="37"/>
-    </row>
-    <row r="61" spans="4:14">
-      <c r="H61" s="38"/>
-      <c r="I61" s="38"/>
-      <c r="K61" s="37"/>
-      <c r="N61" s="37"/>
-    </row>
-    <row r="62" spans="4:14">
-      <c r="H62" s="38"/>
-      <c r="I62" s="38"/>
-      <c r="K62" s="37"/>
-      <c r="N62" s="37"/>
-    </row>
-    <row r="63" spans="4:14">
-      <c r="H63" s="38"/>
-      <c r="I63" s="38"/>
-      <c r="K63" s="37"/>
-      <c r="N63" s="37"/>
-    </row>
-    <row r="64" spans="4:14">
-      <c r="H64" s="38"/>
-      <c r="I64" s="38"/>
-      <c r="K64" s="37"/>
-      <c r="N64" s="37"/>
-    </row>
-    <row r="65" spans="8:14">
-      <c r="H65" s="38"/>
-      <c r="I65" s="38"/>
-      <c r="K65" s="37"/>
-      <c r="N65" s="37"/>
-    </row>
-    <row r="66" spans="8:14">
-      <c r="H66" s="38"/>
-      <c r="I66" s="38"/>
-      <c r="K66" s="37"/>
-      <c r="N66" s="37"/>
-    </row>
-    <row r="67" spans="8:14">
-      <c r="H67" s="38"/>
-      <c r="I67" s="38"/>
-      <c r="K67" s="37"/>
-      <c r="N67" s="37"/>
-    </row>
-    <row r="68" spans="8:14">
-      <c r="H68" s="38"/>
-      <c r="I68" s="38"/>
-      <c r="K68" s="37"/>
-      <c r="N68" s="37"/>
-    </row>
-    <row r="69" spans="8:14">
-      <c r="H69" s="38"/>
-      <c r="I69" s="38"/>
-      <c r="K69" s="37"/>
-      <c r="N69" s="37"/>
-    </row>
-    <row r="70" spans="8:14">
-      <c r="H70" s="38"/>
-      <c r="I70" s="38"/>
-      <c r="K70" s="37"/>
-      <c r="N70" s="37"/>
-    </row>
-    <row r="71" spans="8:14">
-      <c r="H71" s="38"/>
-      <c r="I71" s="38"/>
-      <c r="K71" s="37"/>
-      <c r="N71" s="37"/>
-    </row>
-    <row r="72" spans="8:14">
-      <c r="H72" s="38"/>
-      <c r="I72" s="38"/>
-      <c r="K72" s="37"/>
-      <c r="N72" s="37"/>
-    </row>
-    <row r="73" spans="8:14">
-      <c r="H73" s="38"/>
-      <c r="I73" s="38"/>
-      <c r="K73" s="37"/>
-      <c r="N73" s="37"/>
-    </row>
-    <row r="74" spans="8:14">
-      <c r="H74" s="38"/>
-      <c r="I74" s="38"/>
-      <c r="K74" s="37"/>
-      <c r="N74" s="37"/>
-    </row>
-    <row r="75" spans="8:14">
-      <c r="H75" s="38"/>
-      <c r="I75" s="38"/>
-      <c r="K75" s="37"/>
-      <c r="N75" s="37"/>
-    </row>
-    <row r="76" spans="8:14">
-      <c r="H76" s="38"/>
-      <c r="I76" s="38"/>
-      <c r="K76" s="37"/>
-      <c r="N76" s="37"/>
-    </row>
-    <row r="77" spans="8:14">
-      <c r="H77" s="38"/>
-      <c r="I77" s="38"/>
-      <c r="K77" s="37"/>
-      <c r="N77" s="37"/>
-    </row>
-    <row r="78" spans="8:14">
-      <c r="H78" s="38"/>
-      <c r="I78" s="38"/>
-      <c r="K78" s="37"/>
-      <c r="N78" s="37"/>
-    </row>
-    <row r="79" spans="8:14">
-      <c r="H79" s="38"/>
-      <c r="I79" s="38"/>
-      <c r="K79" s="37"/>
-      <c r="N79" s="37"/>
-    </row>
-    <row r="80" spans="8:14">
-      <c r="H80" s="38"/>
-      <c r="I80" s="38"/>
-      <c r="K80" s="37"/>
-      <c r="N80" s="37"/>
-    </row>
-    <row r="81" spans="8:14">
-      <c r="H81" s="38"/>
-      <c r="I81" s="38"/>
-      <c r="K81" s="37"/>
-      <c r="N81" s="37"/>
-    </row>
-    <row r="82" spans="8:14">
-      <c r="H82" s="38"/>
-      <c r="I82" s="38"/>
-      <c r="K82" s="37"/>
-      <c r="N82" s="37"/>
-    </row>
-    <row r="83" spans="8:14">
-      <c r="H83" s="38"/>
-      <c r="I83" s="38"/>
-      <c r="K83" s="37"/>
-      <c r="N83" s="37"/>
-    </row>
-    <row r="84" spans="8:14">
-      <c r="H84" s="38"/>
-      <c r="I84" s="38"/>
-      <c r="K84" s="37"/>
-      <c r="N84" s="37"/>
-    </row>
-    <row r="85" spans="8:14">
-      <c r="H85" s="38"/>
-      <c r="I85" s="38"/>
-      <c r="K85" s="37"/>
-      <c r="N85" s="37"/>
-    </row>
-    <row r="86" spans="8:14">
-      <c r="H86" s="38"/>
-      <c r="I86" s="38"/>
-      <c r="K86" s="37"/>
-      <c r="N86" s="37"/>
-    </row>
-    <row r="87" spans="8:14">
-      <c r="H87" s="38"/>
-      <c r="I87" s="38"/>
-      <c r="K87" s="37"/>
-      <c r="N87" s="37"/>
-    </row>
-    <row r="88" spans="8:14">
-      <c r="H88" s="38"/>
-      <c r="I88" s="38"/>
-      <c r="K88" s="37"/>
-      <c r="N88" s="37"/>
-    </row>
-    <row r="89" spans="8:14">
-      <c r="H89" s="38"/>
-      <c r="I89" s="38"/>
-      <c r="K89" s="37"/>
-      <c r="N89" s="37"/>
-    </row>
-    <row r="90" spans="8:14">
-      <c r="H90" s="38"/>
-      <c r="I90" s="38"/>
-      <c r="K90" s="37"/>
-      <c r="N90" s="37"/>
-    </row>
-    <row r="91" spans="8:14">
-      <c r="H91" s="38"/>
-      <c r="I91" s="38"/>
-      <c r="K91" s="37"/>
-      <c r="N91" s="37"/>
-    </row>
-    <row r="92" spans="8:14">
-      <c r="H92" s="38"/>
-      <c r="I92" s="38"/>
-      <c r="K92" s="37"/>
-      <c r="N92" s="37"/>
-    </row>
-    <row r="93" spans="8:14">
-      <c r="H93" s="38"/>
-      <c r="I93" s="38"/>
-      <c r="K93" s="37"/>
-      <c r="N93" s="37"/>
-    </row>
-    <row r="94" spans="8:14">
-      <c r="H94" s="38"/>
-      <c r="I94" s="38"/>
-      <c r="K94" s="37"/>
-      <c r="N94" s="37"/>
-    </row>
-    <row r="95" spans="8:14">
-      <c r="H95" s="38"/>
-      <c r="I95" s="38"/>
-      <c r="K95" s="37"/>
-      <c r="N95" s="37"/>
-    </row>
-    <row r="96" spans="8:14">
-      <c r="H96" s="38"/>
-      <c r="I96" s="38"/>
-      <c r="K96" s="37"/>
-      <c r="N96" s="37"/>
-    </row>
-    <row r="97" spans="8:14">
-      <c r="H97" s="38"/>
-      <c r="I97" s="38"/>
-      <c r="K97" s="37"/>
-      <c r="N97" s="37"/>
-    </row>
-    <row r="98" spans="8:14">
-      <c r="H98" s="38"/>
-      <c r="I98" s="38"/>
-      <c r="K98" s="37"/>
-      <c r="N98" s="37"/>
-    </row>
-    <row r="99" spans="8:14">
-      <c r="H99" s="38"/>
-      <c r="I99" s="38"/>
-      <c r="K99" s="37"/>
-      <c r="N99" s="37"/>
-    </row>
-    <row r="100" spans="8:14">
-      <c r="H100" s="38"/>
-      <c r="I100" s="38"/>
-      <c r="K100" s="37"/>
-      <c r="N100" s="37"/>
-    </row>
-    <row r="101" spans="8:14">
-      <c r="H101" s="38"/>
-      <c r="I101" s="38"/>
-      <c r="K101" s="37"/>
-      <c r="N101" s="37"/>
-    </row>
-    <row r="102" spans="8:14">
-      <c r="H102" s="38"/>
-      <c r="I102" s="38"/>
-      <c r="K102" s="37"/>
-      <c r="N102" s="37"/>
-    </row>
-    <row r="103" spans="8:14">
-      <c r="H103" s="38"/>
-      <c r="I103" s="38"/>
-      <c r="K103" s="37"/>
-      <c r="N103" s="37"/>
-    </row>
-    <row r="104" spans="8:14">
-      <c r="H104" s="38"/>
-      <c r="I104" s="38"/>
-      <c r="K104" s="37"/>
-      <c r="N104" s="37"/>
-    </row>
-    <row r="105" spans="8:14">
-      <c r="H105" s="38"/>
-      <c r="I105" s="38"/>
-      <c r="K105" s="37"/>
-      <c r="N105" s="37"/>
-    </row>
-    <row r="106" spans="8:14">
-      <c r="H106" s="38"/>
-      <c r="I106" s="38"/>
-      <c r="K106" s="37"/>
-      <c r="N106" s="37"/>
-    </row>
-    <row r="107" spans="8:14">
-      <c r="H107" s="38"/>
-      <c r="I107" s="38"/>
-      <c r="K107" s="37"/>
-      <c r="N107" s="37"/>
-    </row>
-    <row r="108" spans="8:14">
-      <c r="H108" s="38"/>
-      <c r="I108" s="38"/>
-      <c r="K108" s="37"/>
-      <c r="N108" s="37"/>
-    </row>
-    <row r="109" spans="8:14">
-      <c r="H109" s="38"/>
-      <c r="I109" s="38"/>
-      <c r="K109" s="37"/>
-      <c r="N109" s="37"/>
-    </row>
-    <row r="110" spans="8:14">
-      <c r="H110" s="38"/>
-      <c r="I110" s="38"/>
-      <c r="K110" s="37"/>
-      <c r="N110" s="37"/>
-    </row>
-    <row r="111" spans="8:14">
-      <c r="H111" s="38"/>
-      <c r="I111" s="38"/>
-      <c r="K111" s="37"/>
-      <c r="N111" s="37"/>
-    </row>
-    <row r="112" spans="8:14">
-      <c r="H112" s="38"/>
-      <c r="I112" s="38"/>
-      <c r="K112" s="37"/>
-      <c r="N112" s="37"/>
-    </row>
-    <row r="113" spans="8:14">
-      <c r="H113" s="38"/>
-      <c r="I113" s="38"/>
-      <c r="K113" s="37"/>
-      <c r="N113" s="37"/>
-    </row>
-    <row r="114" spans="8:14">
-      <c r="H114" s="38"/>
-      <c r="I114" s="38"/>
-      <c r="K114" s="37"/>
-      <c r="N114" s="37"/>
-    </row>
-    <row r="115" spans="8:14">
-      <c r="H115" s="38"/>
-      <c r="I115" s="38"/>
-      <c r="K115" s="37"/>
-      <c r="N115" s="37"/>
-    </row>
-    <row r="116" spans="8:14">
-      <c r="H116" s="38"/>
-      <c r="I116" s="38"/>
-      <c r="K116" s="37"/>
-      <c r="N116" s="37"/>
-    </row>
-    <row r="117" spans="8:14">
-      <c r="H117" s="38"/>
-      <c r="I117" s="38"/>
-      <c r="K117" s="37"/>
-      <c r="N117" s="37"/>
-    </row>
-    <row r="118" spans="8:14">
-      <c r="H118" s="38"/>
-      <c r="I118" s="38"/>
-      <c r="K118" s="37"/>
-      <c r="N118" s="37"/>
-    </row>
-    <row r="119" spans="8:14">
-      <c r="H119" s="38"/>
-      <c r="I119" s="38"/>
-      <c r="K119" s="37"/>
-      <c r="N119" s="37"/>
-    </row>
-    <row r="120" spans="8:14">
-      <c r="H120" s="38"/>
-      <c r="I120" s="38"/>
-      <c r="K120" s="37"/>
-      <c r="N120" s="37"/>
-    </row>
-    <row r="121" spans="8:14">
-      <c r="H121" s="38"/>
-      <c r="I121" s="38"/>
-      <c r="K121" s="37"/>
-      <c r="N121" s="37"/>
-    </row>
-    <row r="122" spans="8:14">
-      <c r="H122" s="38"/>
-      <c r="I122" s="38"/>
-      <c r="K122" s="37"/>
-      <c r="N122" s="37"/>
-    </row>
-    <row r="123" spans="8:14">
-      <c r="H123" s="38"/>
-      <c r="I123" s="38"/>
-      <c r="K123" s="37"/>
-      <c r="N123" s="37"/>
-    </row>
-    <row r="124" spans="8:14">
-      <c r="H124" s="38"/>
-      <c r="I124" s="38"/>
-      <c r="K124" s="37"/>
-      <c r="N124" s="37"/>
-    </row>
-    <row r="125" spans="8:14">
-      <c r="H125" s="38"/>
-      <c r="I125" s="38"/>
-      <c r="K125" s="37"/>
-      <c r="N125" s="37"/>
-    </row>
-    <row r="126" spans="8:14">
-      <c r="H126" s="38"/>
-      <c r="I126" s="38"/>
-      <c r="K126" s="37"/>
-      <c r="N126" s="37"/>
-    </row>
-    <row r="127" spans="8:14">
-      <c r="H127" s="38"/>
-      <c r="I127" s="38"/>
-      <c r="K127" s="37"/>
-      <c r="N127" s="37"/>
-    </row>
-    <row r="128" spans="8:14">
-      <c r="H128" s="38"/>
-      <c r="I128" s="38"/>
-      <c r="K128" s="37"/>
-      <c r="N128" s="37"/>
-    </row>
-    <row r="129" spans="8:14">
-      <c r="H129" s="38"/>
-      <c r="I129" s="38"/>
-      <c r="K129" s="37"/>
-      <c r="N129" s="37"/>
-    </row>
-    <row r="130" spans="8:14">
-      <c r="H130" s="38"/>
-      <c r="I130" s="38"/>
-      <c r="K130" s="37"/>
-      <c r="N130" s="37"/>
-    </row>
-    <row r="131" spans="8:14">
-      <c r="H131" s="38"/>
-      <c r="I131" s="38"/>
-      <c r="K131" s="37"/>
-      <c r="N131" s="37"/>
-    </row>
-    <row r="132" spans="8:14">
-      <c r="H132" s="38"/>
-      <c r="I132" s="38"/>
-      <c r="K132" s="37"/>
-      <c r="N132" s="37"/>
-    </row>
-    <row r="133" spans="8:14">
-      <c r="H133" s="38"/>
-      <c r="I133" s="38"/>
-      <c r="K133" s="37"/>
-      <c r="N133" s="37"/>
-    </row>
-    <row r="134" spans="8:14">
-      <c r="H134" s="38"/>
-      <c r="I134" s="38"/>
-      <c r="K134" s="37"/>
-      <c r="N134" s="37"/>
-    </row>
-    <row r="135" spans="8:14">
-      <c r="H135" s="38"/>
-      <c r="I135" s="38"/>
-      <c r="K135" s="37"/>
-      <c r="N135" s="37"/>
-    </row>
-    <row r="136" spans="8:14">
-      <c r="H136" s="38"/>
-      <c r="I136" s="38"/>
-      <c r="K136" s="37"/>
-      <c r="N136" s="37"/>
-    </row>
-    <row r="137" spans="8:14">
-      <c r="H137" s="38"/>
-      <c r="I137" s="38"/>
-      <c r="K137" s="37"/>
-      <c r="N137" s="37"/>
-    </row>
-    <row r="138" spans="8:14">
-      <c r="H138" s="38"/>
-      <c r="I138" s="38"/>
-      <c r="K138" s="37"/>
-      <c r="N138" s="37"/>
-    </row>
-    <row r="139" spans="8:14">
-      <c r="H139" s="38"/>
-      <c r="I139" s="38"/>
-      <c r="K139" s="37"/>
-      <c r="N139" s="37"/>
-    </row>
-    <row r="140" spans="8:14">
-      <c r="H140" s="38"/>
-      <c r="I140" s="38"/>
-      <c r="K140" s="37"/>
-      <c r="N140" s="37"/>
-    </row>
-    <row r="141" spans="8:14">
-      <c r="H141" s="38"/>
-      <c r="I141" s="38"/>
-      <c r="K141" s="37"/>
-      <c r="N141" s="37"/>
-    </row>
-    <row r="142" spans="8:14">
-      <c r="H142" s="38"/>
-      <c r="I142" s="38"/>
-      <c r="K142" s="37"/>
-      <c r="N142" s="37"/>
-    </row>
-    <row r="143" spans="8:14">
-      <c r="H143" s="38"/>
-      <c r="I143" s="38"/>
-      <c r="K143" s="37"/>
-      <c r="N143" s="37"/>
-    </row>
-    <row r="144" spans="8:14">
-      <c r="H144" s="38"/>
-      <c r="I144" s="38"/>
-      <c r="K144" s="37"/>
-      <c r="N144" s="37"/>
-    </row>
-    <row r="145" spans="8:14">
-      <c r="H145" s="38"/>
-      <c r="I145" s="38"/>
-      <c r="K145" s="37"/>
-      <c r="N145" s="37"/>
-    </row>
-    <row r="146" spans="8:14">
-      <c r="H146" s="38"/>
-      <c r="I146" s="38"/>
-      <c r="K146" s="37"/>
-      <c r="N146" s="37"/>
-    </row>
-    <row r="147" spans="8:14">
-      <c r="H147" s="38"/>
-      <c r="I147" s="38"/>
-      <c r="K147" s="37"/>
-      <c r="N147" s="37"/>
-    </row>
-    <row r="148" spans="8:14">
-      <c r="H148" s="38"/>
-      <c r="I148" s="38"/>
-      <c r="K148" s="37"/>
-      <c r="N148" s="37"/>
-    </row>
-    <row r="149" spans="8:14">
-      <c r="H149" s="38"/>
-      <c r="I149" s="38"/>
-      <c r="K149" s="37"/>
-      <c r="N149" s="37"/>
-    </row>
-    <row r="150" spans="8:14">
-      <c r="H150" s="38"/>
-      <c r="I150" s="38"/>
-      <c r="K150" s="37"/>
-      <c r="N150" s="37"/>
-    </row>
-    <row r="151" spans="8:14">
-      <c r="H151" s="38"/>
-      <c r="I151" s="38"/>
-      <c r="K151" s="37"/>
-      <c r="N151" s="37"/>
-    </row>
-    <row r="152" spans="8:14">
-      <c r="H152" s="38"/>
-      <c r="I152" s="38"/>
-      <c r="K152" s="37"/>
-      <c r="N152" s="37"/>
-    </row>
-    <row r="153" spans="8:14">
-      <c r="H153" s="38"/>
-      <c r="I153" s="38"/>
-      <c r="K153" s="37"/>
-      <c r="N153" s="37"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="34"/>
+      <c r="K52" s="31"/>
+      <c r="M52" s="32"/>
+      <c r="N52" s="31"/>
+    </row>
+    <row r="53" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="H53" s="37"/>
+      <c r="I53" s="37"/>
+      <c r="K53" s="36"/>
+      <c r="N53" s="36"/>
+    </row>
+    <row r="54" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="H54" s="37"/>
+      <c r="I54" s="37"/>
+      <c r="K54" s="36"/>
+      <c r="N54" s="36"/>
+    </row>
+    <row r="55" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="H55" s="37"/>
+      <c r="I55" s="37"/>
+      <c r="K55" s="36"/>
+      <c r="N55" s="36"/>
+    </row>
+    <row r="56" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="K56" s="36"/>
+      <c r="N56" s="36"/>
+    </row>
+    <row r="57" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="K57" s="36"/>
+      <c r="N57" s="36"/>
+    </row>
+    <row r="58" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="K58" s="36"/>
+      <c r="N58" s="36"/>
+    </row>
+    <row r="59" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="H59" s="37"/>
+      <c r="I59" s="37"/>
+      <c r="K59" s="36"/>
+      <c r="N59" s="36"/>
+    </row>
+    <row r="60" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="H60" s="37"/>
+      <c r="I60" s="37"/>
+      <c r="K60" s="36"/>
+      <c r="N60" s="36"/>
+    </row>
+    <row r="61" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="H61" s="37"/>
+      <c r="I61" s="37"/>
+      <c r="K61" s="36"/>
+      <c r="N61" s="36"/>
+    </row>
+    <row r="62" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="H62" s="37"/>
+      <c r="I62" s="37"/>
+      <c r="K62" s="36"/>
+      <c r="N62" s="36"/>
+    </row>
+    <row r="63" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="H63" s="37"/>
+      <c r="I63" s="37"/>
+      <c r="K63" s="36"/>
+      <c r="N63" s="36"/>
+    </row>
+    <row r="64" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="H64" s="37"/>
+      <c r="I64" s="37"/>
+      <c r="K64" s="36"/>
+      <c r="N64" s="36"/>
+    </row>
+    <row r="65" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H65" s="37"/>
+      <c r="I65" s="37"/>
+      <c r="K65" s="36"/>
+      <c r="N65" s="36"/>
+    </row>
+    <row r="66" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H66" s="37"/>
+      <c r="I66" s="37"/>
+      <c r="K66" s="36"/>
+      <c r="N66" s="36"/>
+    </row>
+    <row r="67" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H67" s="37"/>
+      <c r="I67" s="37"/>
+      <c r="K67" s="36"/>
+      <c r="N67" s="36"/>
+    </row>
+    <row r="68" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H68" s="37"/>
+      <c r="I68" s="37"/>
+      <c r="K68" s="36"/>
+      <c r="N68" s="36"/>
+    </row>
+    <row r="69" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H69" s="37"/>
+      <c r="I69" s="37"/>
+      <c r="K69" s="36"/>
+      <c r="N69" s="36"/>
+    </row>
+    <row r="70" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H70" s="37"/>
+      <c r="I70" s="37"/>
+      <c r="K70" s="36"/>
+      <c r="N70" s="36"/>
+    </row>
+    <row r="71" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H71" s="37"/>
+      <c r="I71" s="37"/>
+      <c r="K71" s="36"/>
+      <c r="N71" s="36"/>
+    </row>
+    <row r="72" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H72" s="37"/>
+      <c r="I72" s="37"/>
+      <c r="K72" s="36"/>
+      <c r="N72" s="36"/>
+    </row>
+    <row r="73" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H73" s="37"/>
+      <c r="I73" s="37"/>
+      <c r="K73" s="36"/>
+      <c r="N73" s="36"/>
+    </row>
+    <row r="74" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H74" s="37"/>
+      <c r="I74" s="37"/>
+      <c r="K74" s="36"/>
+      <c r="N74" s="36"/>
+    </row>
+    <row r="75" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H75" s="37"/>
+      <c r="I75" s="37"/>
+      <c r="K75" s="36"/>
+      <c r="N75" s="36"/>
+    </row>
+    <row r="76" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H76" s="37"/>
+      <c r="I76" s="37"/>
+      <c r="K76" s="36"/>
+      <c r="N76" s="36"/>
+    </row>
+    <row r="77" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H77" s="37"/>
+      <c r="I77" s="37"/>
+      <c r="K77" s="36"/>
+      <c r="N77" s="36"/>
+    </row>
+    <row r="78" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H78" s="37"/>
+      <c r="I78" s="37"/>
+      <c r="K78" s="36"/>
+      <c r="N78" s="36"/>
+    </row>
+    <row r="79" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H79" s="37"/>
+      <c r="I79" s="37"/>
+      <c r="K79" s="36"/>
+      <c r="N79" s="36"/>
+    </row>
+    <row r="80" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H80" s="37"/>
+      <c r="I80" s="37"/>
+      <c r="K80" s="36"/>
+      <c r="N80" s="36"/>
+    </row>
+    <row r="81" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H81" s="37"/>
+      <c r="I81" s="37"/>
+      <c r="K81" s="36"/>
+      <c r="N81" s="36"/>
+    </row>
+    <row r="82" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H82" s="37"/>
+      <c r="I82" s="37"/>
+      <c r="K82" s="36"/>
+      <c r="N82" s="36"/>
+    </row>
+    <row r="83" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H83" s="37"/>
+      <c r="I83" s="37"/>
+      <c r="K83" s="36"/>
+      <c r="N83" s="36"/>
+    </row>
+    <row r="84" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H84" s="37"/>
+      <c r="I84" s="37"/>
+      <c r="K84" s="36"/>
+      <c r="N84" s="36"/>
+    </row>
+    <row r="85" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H85" s="37"/>
+      <c r="I85" s="37"/>
+      <c r="K85" s="36"/>
+      <c r="N85" s="36"/>
+    </row>
+    <row r="86" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H86" s="37"/>
+      <c r="I86" s="37"/>
+      <c r="K86" s="36"/>
+      <c r="N86" s="36"/>
+    </row>
+    <row r="87" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H87" s="37"/>
+      <c r="I87" s="37"/>
+      <c r="K87" s="36"/>
+      <c r="N87" s="36"/>
+    </row>
+    <row r="88" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H88" s="37"/>
+      <c r="I88" s="37"/>
+      <c r="K88" s="36"/>
+      <c r="N88" s="36"/>
+    </row>
+    <row r="89" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H89" s="37"/>
+      <c r="I89" s="37"/>
+      <c r="K89" s="36"/>
+      <c r="N89" s="36"/>
+    </row>
+    <row r="90" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H90" s="37"/>
+      <c r="I90" s="37"/>
+      <c r="K90" s="36"/>
+      <c r="N90" s="36"/>
+    </row>
+    <row r="91" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H91" s="37"/>
+      <c r="I91" s="37"/>
+      <c r="K91" s="36"/>
+      <c r="N91" s="36"/>
+    </row>
+    <row r="92" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H92" s="37"/>
+      <c r="I92" s="37"/>
+      <c r="K92" s="36"/>
+      <c r="N92" s="36"/>
+    </row>
+    <row r="93" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H93" s="37"/>
+      <c r="I93" s="37"/>
+      <c r="K93" s="36"/>
+      <c r="N93" s="36"/>
+    </row>
+    <row r="94" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H94" s="37"/>
+      <c r="I94" s="37"/>
+      <c r="K94" s="36"/>
+      <c r="N94" s="36"/>
+    </row>
+    <row r="95" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H95" s="37"/>
+      <c r="I95" s="37"/>
+      <c r="K95" s="36"/>
+      <c r="N95" s="36"/>
+    </row>
+    <row r="96" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H96" s="37"/>
+      <c r="I96" s="37"/>
+      <c r="K96" s="36"/>
+      <c r="N96" s="36"/>
+    </row>
+    <row r="97" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H97" s="37"/>
+      <c r="I97" s="37"/>
+      <c r="K97" s="36"/>
+      <c r="N97" s="36"/>
+    </row>
+    <row r="98" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H98" s="37"/>
+      <c r="I98" s="37"/>
+      <c r="K98" s="36"/>
+      <c r="N98" s="36"/>
+    </row>
+    <row r="99" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H99" s="37"/>
+      <c r="I99" s="37"/>
+      <c r="K99" s="36"/>
+      <c r="N99" s="36"/>
+    </row>
+    <row r="100" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H100" s="37"/>
+      <c r="I100" s="37"/>
+      <c r="K100" s="36"/>
+      <c r="N100" s="36"/>
+    </row>
+    <row r="101" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H101" s="37"/>
+      <c r="I101" s="37"/>
+      <c r="K101" s="36"/>
+      <c r="N101" s="36"/>
+    </row>
+    <row r="102" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H102" s="37"/>
+      <c r="I102" s="37"/>
+      <c r="K102" s="36"/>
+      <c r="N102" s="36"/>
+    </row>
+    <row r="103" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H103" s="37"/>
+      <c r="I103" s="37"/>
+      <c r="K103" s="36"/>
+      <c r="N103" s="36"/>
+    </row>
+    <row r="104" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H104" s="37"/>
+      <c r="I104" s="37"/>
+      <c r="K104" s="36"/>
+      <c r="N104" s="36"/>
+    </row>
+    <row r="105" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H105" s="37"/>
+      <c r="I105" s="37"/>
+      <c r="K105" s="36"/>
+      <c r="N105" s="36"/>
+    </row>
+    <row r="106" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H106" s="37"/>
+      <c r="I106" s="37"/>
+      <c r="K106" s="36"/>
+      <c r="N106" s="36"/>
+    </row>
+    <row r="107" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H107" s="37"/>
+      <c r="I107" s="37"/>
+      <c r="K107" s="36"/>
+      <c r="N107" s="36"/>
+    </row>
+    <row r="108" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H108" s="37"/>
+      <c r="I108" s="37"/>
+      <c r="K108" s="36"/>
+      <c r="N108" s="36"/>
+    </row>
+    <row r="109" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H109" s="37"/>
+      <c r="I109" s="37"/>
+      <c r="K109" s="36"/>
+      <c r="N109" s="36"/>
+    </row>
+    <row r="110" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H110" s="37"/>
+      <c r="I110" s="37"/>
+      <c r="K110" s="36"/>
+      <c r="N110" s="36"/>
+    </row>
+    <row r="111" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H111" s="37"/>
+      <c r="I111" s="37"/>
+      <c r="K111" s="36"/>
+      <c r="N111" s="36"/>
+    </row>
+    <row r="112" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H112" s="37"/>
+      <c r="I112" s="37"/>
+      <c r="K112" s="36"/>
+      <c r="N112" s="36"/>
+    </row>
+    <row r="113" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H113" s="37"/>
+      <c r="I113" s="37"/>
+      <c r="K113" s="36"/>
+      <c r="N113" s="36"/>
+    </row>
+    <row r="114" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H114" s="37"/>
+      <c r="I114" s="37"/>
+      <c r="K114" s="36"/>
+      <c r="N114" s="36"/>
+    </row>
+    <row r="115" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H115" s="37"/>
+      <c r="I115" s="37"/>
+      <c r="K115" s="36"/>
+      <c r="N115" s="36"/>
+    </row>
+    <row r="116" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H116" s="37"/>
+      <c r="I116" s="37"/>
+      <c r="K116" s="36"/>
+      <c r="N116" s="36"/>
+    </row>
+    <row r="117" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H117" s="37"/>
+      <c r="I117" s="37"/>
+      <c r="K117" s="36"/>
+      <c r="N117" s="36"/>
+    </row>
+    <row r="118" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H118" s="37"/>
+      <c r="I118" s="37"/>
+      <c r="K118" s="36"/>
+      <c r="N118" s="36"/>
+    </row>
+    <row r="119" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H119" s="37"/>
+      <c r="I119" s="37"/>
+      <c r="K119" s="36"/>
+      <c r="N119" s="36"/>
+    </row>
+    <row r="120" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H120" s="37"/>
+      <c r="I120" s="37"/>
+      <c r="K120" s="36"/>
+      <c r="N120" s="36"/>
+    </row>
+    <row r="121" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H121" s="37"/>
+      <c r="I121" s="37"/>
+      <c r="K121" s="36"/>
+      <c r="N121" s="36"/>
+    </row>
+    <row r="122" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H122" s="37"/>
+      <c r="I122" s="37"/>
+      <c r="K122" s="36"/>
+      <c r="N122" s="36"/>
+    </row>
+    <row r="123" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H123" s="37"/>
+      <c r="I123" s="37"/>
+      <c r="K123" s="36"/>
+      <c r="N123" s="36"/>
+    </row>
+    <row r="124" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H124" s="37"/>
+      <c r="I124" s="37"/>
+      <c r="K124" s="36"/>
+      <c r="N124" s="36"/>
+    </row>
+    <row r="125" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H125" s="37"/>
+      <c r="I125" s="37"/>
+      <c r="K125" s="36"/>
+      <c r="N125" s="36"/>
+    </row>
+    <row r="126" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H126" s="37"/>
+      <c r="I126" s="37"/>
+      <c r="K126" s="36"/>
+      <c r="N126" s="36"/>
+    </row>
+    <row r="127" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H127" s="37"/>
+      <c r="I127" s="37"/>
+      <c r="K127" s="36"/>
+      <c r="N127" s="36"/>
+    </row>
+    <row r="128" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H128" s="37"/>
+      <c r="I128" s="37"/>
+      <c r="K128" s="36"/>
+      <c r="N128" s="36"/>
+    </row>
+    <row r="129" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H129" s="37"/>
+      <c r="I129" s="37"/>
+      <c r="K129" s="36"/>
+      <c r="N129" s="36"/>
+    </row>
+    <row r="130" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H130" s="37"/>
+      <c r="I130" s="37"/>
+      <c r="K130" s="36"/>
+      <c r="N130" s="36"/>
+    </row>
+    <row r="131" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H131" s="37"/>
+      <c r="I131" s="37"/>
+      <c r="K131" s="36"/>
+      <c r="N131" s="36"/>
+    </row>
+    <row r="132" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H132" s="37"/>
+      <c r="I132" s="37"/>
+      <c r="K132" s="36"/>
+      <c r="N132" s="36"/>
+    </row>
+    <row r="133" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H133" s="37"/>
+      <c r="I133" s="37"/>
+      <c r="K133" s="36"/>
+      <c r="N133" s="36"/>
+    </row>
+    <row r="134" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H134" s="37"/>
+      <c r="I134" s="37"/>
+      <c r="K134" s="36"/>
+      <c r="N134" s="36"/>
+    </row>
+    <row r="135" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H135" s="37"/>
+      <c r="I135" s="37"/>
+      <c r="K135" s="36"/>
+      <c r="N135" s="36"/>
+    </row>
+    <row r="136" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H136" s="37"/>
+      <c r="I136" s="37"/>
+      <c r="K136" s="36"/>
+      <c r="N136" s="36"/>
+    </row>
+    <row r="137" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H137" s="37"/>
+      <c r="I137" s="37"/>
+      <c r="K137" s="36"/>
+      <c r="N137" s="36"/>
+    </row>
+    <row r="138" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H138" s="37"/>
+      <c r="I138" s="37"/>
+      <c r="K138" s="36"/>
+      <c r="N138" s="36"/>
+    </row>
+    <row r="139" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H139" s="37"/>
+      <c r="I139" s="37"/>
+      <c r="K139" s="36"/>
+      <c r="N139" s="36"/>
+    </row>
+    <row r="140" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H140" s="37"/>
+      <c r="I140" s="37"/>
+      <c r="K140" s="36"/>
+      <c r="N140" s="36"/>
+    </row>
+    <row r="141" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H141" s="37"/>
+      <c r="I141" s="37"/>
+      <c r="K141" s="36"/>
+      <c r="N141" s="36"/>
+    </row>
+    <row r="142" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H142" s="37"/>
+      <c r="I142" s="37"/>
+      <c r="K142" s="36"/>
+      <c r="N142" s="36"/>
+    </row>
+    <row r="143" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H143" s="37"/>
+      <c r="I143" s="37"/>
+      <c r="K143" s="36"/>
+      <c r="N143" s="36"/>
+    </row>
+    <row r="144" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H144" s="37"/>
+      <c r="I144" s="37"/>
+      <c r="K144" s="36"/>
+      <c r="N144" s="36"/>
+    </row>
+    <row r="145" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H145" s="37"/>
+      <c r="I145" s="37"/>
+      <c r="K145" s="36"/>
+      <c r="N145" s="36"/>
+    </row>
+    <row r="146" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H146" s="37"/>
+      <c r="I146" s="37"/>
+      <c r="K146" s="36"/>
+      <c r="N146" s="36"/>
+    </row>
+    <row r="147" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H147" s="37"/>
+      <c r="I147" s="37"/>
+      <c r="K147" s="36"/>
+      <c r="N147" s="36"/>
+    </row>
+    <row r="148" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H148" s="37"/>
+      <c r="I148" s="37"/>
+      <c r="K148" s="36"/>
+      <c r="N148" s="36"/>
+    </row>
+    <row r="149" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H149" s="37"/>
+      <c r="I149" s="37"/>
+      <c r="K149" s="36"/>
+      <c r="N149" s="36"/>
+    </row>
+    <row r="150" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H150" s="37"/>
+      <c r="I150" s="37"/>
+      <c r="K150" s="36"/>
+      <c r="N150" s="36"/>
+    </row>
+    <row r="151" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H151" s="37"/>
+      <c r="I151" s="37"/>
+      <c r="K151" s="36"/>
+      <c r="N151" s="36"/>
+    </row>
+    <row r="152" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H152" s="37"/>
+      <c r="I152" s="37"/>
+      <c r="K152" s="36"/>
+      <c r="N152" s="36"/>
+    </row>
+    <row r="153" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H153" s="37"/>
+      <c r="I153" s="37"/>
+      <c r="K153" s="36"/>
+      <c r="N153" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="L1:M1"/>
   </mergeCells>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
@@ -2341,21 +2364,21 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B1" s="7"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>23</v>
       </c>
@@ -2363,7 +2386,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>25</v>
       </c>
@@ -2371,7 +2394,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
@@ -2379,7 +2402,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>29</v>
       </c>
@@ -2387,7 +2410,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>31</v>
       </c>
@@ -2395,7 +2418,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>33</v>
       </c>
@@ -2403,7 +2426,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>35</v>
       </c>
@@ -2411,7 +2434,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>37</v>
       </c>
@@ -2419,7 +2442,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>56</v>
       </c>
@@ -2427,7 +2450,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>39</v>
       </c>
@@ -2435,7 +2458,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>41</v>
       </c>
@@ -2443,7 +2466,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>58</v>
       </c>
@@ -2451,7 +2474,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -2459,7 +2482,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>62</v>
       </c>
@@ -2467,7 +2490,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -2476,6 +2499,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
